--- a/WebRoot/template/familyTemplate.xlsx
+++ b/WebRoot/template/familyTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="12375"/>
+    <workbookView windowWidth="19095" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>与户主关  系</t>
+    <t>与户主关系</t>
   </si>
   <si>
     <t>户口性质</t>
@@ -71,16 +71,19 @@
     <t>在读情况</t>
   </si>
   <si>
-    <t>从事农业劳动时  间</t>
-  </si>
-  <si>
-    <t>是否参加过社会保险</t>
-  </si>
-  <si>
-    <t>是否独生子女(证号)</t>
-  </si>
-  <si>
-    <t>是否半边户</t>
+    <t>从事农业劳动时间</t>
+  </si>
+  <si>
+    <t>是否参加过社会保险
+(是/否)</t>
+  </si>
+  <si>
+    <t>独生子女
+(证号)</t>
+  </si>
+  <si>
+    <t>是否半边户
+(是/否)</t>
   </si>
   <si>
     <t>服兵役、劳改、劳教情况及时间起止段</t>
@@ -97,10 +100,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -127,6 +130,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -134,6 +138,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -141,53 +206,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,7 +245,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,38 +253,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,17 +267,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,13 +283,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,169 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,17 +514,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,22 +549,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,6 +569,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,16 +597,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -616,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,133 +631,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -865,6 +868,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1158,21 +1162,23 @@
   <sheetPr/>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="5" width="8.125" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="5" width="8.125" customWidth="1"/>
     <col min="6" max="6" width="10.875" customWidth="1"/>
     <col min="7" max="7" width="20.125" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="10.625" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="17.375" customWidth="1"/>
+    <col min="11" max="11" width="18.5" customWidth="1"/>
     <col min="12" max="12" width="13.25" customWidth="1"/>
     <col min="13" max="13" width="10.25" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="14" max="14" width="20.25" customWidth="1"/>
     <col min="16" max="16" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1244,7 +1250,7 @@
       <c r="O3" s="4"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" ht="77" customHeight="1" spans="1:16">
+    <row r="4" ht="40.5" spans="1:16">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
